--- a/evaluation/feature-evaluation.xlsx
+++ b/evaluation/feature-evaluation.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECECE2D4-611F-4C6A-BA18-3BD6B08FD2BD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B899EC0-9637-4C9E-BF59-3544B72695CD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,12 +22,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>No features</t>
-  </si>
-  <si>
-    <t>Cummulative features</t>
-  </si>
   <si>
     <t>Score</t>
   </si>
@@ -50,6 +45,12 @@
   </si>
   <si>
     <t>Add Sentence Matching</t>
+  </si>
+  <si>
+    <t>No Features</t>
+  </si>
+  <si>
+    <t>Cumulative features</t>
   </si>
 </sst>
 </file>
@@ -102,6 +103,1155 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Cumulative line</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> chart showing the number of tests passed as more system features are activated</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>No Features</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Add Semantic Similarity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Add Alternative Slot-Filling Grammar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Add Synonym-Mapping</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Add Match Ignores</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Add Suggestions</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Add Sentence Matching</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B1E5-471F-9E43-9A3A463A64BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> out of 158</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>No Features</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Add Semantic Similarity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Add Alternative Slot-Filling Grammar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Add Synonym-Mapping</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Add Match Ignores</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Add Suggestions</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Add Sentence Matching</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B1E5-471F-9E43-9A3A463A64BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="519574192"/>
+        <c:axId val="519577144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="519574192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Cumulative Features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519577144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="519577144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="160"/>
+          <c:min val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Tests</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Passed</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519574192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BA49D775-7AB7-4FF3-B213-085C4A170CBA}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9288843" cy="6077107"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D7C8C0E-F060-4FAB-9337-619751041880}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,68 +1531,89 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>83</v>
+      </c>
+      <c r="C2">
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>114</v>
+      </c>
+      <c r="C3">
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>116</v>
+      </c>
+      <c r="C4">
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>124</v>
+      </c>
+      <c r="C5">
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>125</v>
+      </c>
+      <c r="C6">
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>152</v>
+      </c>
+      <c r="C7">
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
+        <v>158</v>
+      </c>
+      <c r="C8">
         <v>158</v>
       </c>
     </row>

--- a/evaluation/feature-evaluation.xlsx
+++ b/evaluation/feature-evaluation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B899EC0-9637-4C9E-BF59-3544B72695CD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542AA41D-03B6-4C9F-A963-FEF97202B572}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,67 +119,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Cumulative line</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> chart showing the number of tests passed as more system features are activated</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -396,7 +336,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -409,7 +349,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Cumulative Features</a:t>
                 </a:r>
               </a:p>
@@ -428,7 +368,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -466,7 +406,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -518,7 +458,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -531,14 +471,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Number of Tests</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:rPr lang="en-GB" sz="1400" baseline="0"/>
                   <a:t> Passed</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:endParaRPr lang="en-GB" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -555,7 +495,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
